--- a/калькулятор.xlsx
+++ b/калькулятор.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Icom\Desktop\Planner\split\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53B31F9-F12B-443A-B2D0-C8FEAD36EC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F0D237-56C2-474A-8D07-C04779097381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{866C2DA0-6D73-4F8F-8946-9DD8A2B1A910}"/>
   </bookViews>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09556A24-809F-4BBD-8A8D-662F81CB7E78}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1022,7 +1022,9 @@
       <c r="F19" s="9">
         <v>1</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9">
+        <v>10</v>
+      </c>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1042,7 +1044,9 @@
       <c r="F20" s="9">
         <v>1</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9">
+        <v>10</v>
+      </c>
       <c r="H20" s="9">
         <v>20</v>
       </c>
@@ -1064,7 +1068,9 @@
       <c r="F21" s="9">
         <v>1</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="9">
+        <v>10</v>
+      </c>
       <c r="H21" s="9">
         <v>20</v>
       </c>
